--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/133.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/133.xlsx
@@ -479,13 +479,13 @@
         <v>-28.34893419976856</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.884544160657136</v>
+        <v>-10.16595330129107</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.018446226301879</v>
+        <v>-3.122935895281695</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.501322906418177</v>
+        <v>-7.075816338466996</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-27.53657743305752</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.156366552257053</v>
+        <v>-10.46432688305401</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.084182678870186</v>
+        <v>-3.041043541006698</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.441451805522964</v>
+        <v>-7.059555698337572</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-26.46100353532948</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.973640464848961</v>
+        <v>-11.29161640731984</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.952644312219364</v>
+        <v>-2.81039644184401</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.309311192941423</v>
+        <v>-6.928580300708945</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-25.22904357329043</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.7380869354745</v>
+        <v>-12.0155291083474</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.865907805892928</v>
+        <v>-2.80713645843642</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.530754403206378</v>
+        <v>-7.183945667636811</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-23.87463931030172</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.52462012099404</v>
+        <v>-12.8876466775433</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.717244707125129</v>
+        <v>-2.581687003501897</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.079213970498087</v>
+        <v>-6.688009235992229</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-22.45590651952726</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.19693605652236</v>
+        <v>-13.5584831828505</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.690785163082</v>
+        <v>-2.519328365066756</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.199401310585133</v>
+        <v>-6.75758173329316</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-21.04198700861314</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.70862252848554</v>
+        <v>-14.15554456164458</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.565570378703733</v>
+        <v>-2.430798213251004</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.744993663554504</v>
+        <v>-6.221059162839226</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.71696811927058</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.68330519814352</v>
+        <v>-15.16810326342367</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.311841549631081</v>
+        <v>-2.270155657383025</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.64211434782422</v>
+        <v>-6.005468211944523</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-18.52860727598689</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.42888566037413</v>
+        <v>-15.91106526508594</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.292713695179319</v>
+        <v>-2.231179871823207</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.257802890208193</v>
+        <v>-5.636500933258999</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-17.54005449790678</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.11111246915364</v>
+        <v>-16.62938755280008</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.130709539815801</v>
+        <v>-2.014855751969367</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.04843078316331</v>
+        <v>-5.389501547846995</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.7756918431912</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.76305678146023</v>
+        <v>-17.28426454094322</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.137046214391197</v>
+        <v>-2.187098088155115</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.527147653217145</v>
+        <v>-4.879517075253239</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.21377993628029</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.73605054405163</v>
+        <v>-18.24599892309073</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.95935748022329</v>
+        <v>-1.955586897004873</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.895365487286812</v>
+        <v>-4.186829516503197</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.83900773986147</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.35785637521656</v>
+        <v>-18.84135830251538</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.693190963450999</v>
+        <v>-1.707343742822905</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.539804726711215</v>
+        <v>-3.943862560366444</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.59859145455536</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.25419470466965</v>
+        <v>-19.77270544976725</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.540704912253416</v>
+        <v>-1.58313706576345</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.961897386974585</v>
+        <v>-3.351880995074958</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.43303295783509</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.15586160137933</v>
+        <v>-20.70962991802969</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.38357109354702</v>
+        <v>-1.403968901374429</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.569455609293846</v>
+        <v>-2.880780661921129</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.31180447924388</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.94532746273541</v>
+        <v>-21.50437197743099</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.15260977911613</v>
+        <v>-1.253158664940586</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.047832079473796</v>
+        <v>-2.414092434824962</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.19587232688814</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.9167501489858</v>
+        <v>-22.46914377383779</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.063189350707141</v>
+        <v>-1.142489429019476</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6904253041975162</v>
+        <v>-2.019333319541238</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.06657828469415</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.75599294574613</v>
+        <v>-23.32451628769912</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9156521899837299</v>
+        <v>-1.069670040613795</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3113507677181797</v>
+        <v>-1.684694058906719</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.92326575275937</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.3994272612056</v>
+        <v>-24.04850754254373</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6651440674101432</v>
+        <v>-0.8662549313618974</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04602982295241678</v>
+        <v>-1.351075997893855</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.75216914387485</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.02594632139355</v>
+        <v>-24.65207579585014</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3672941777608752</v>
+        <v>-0.6238378519444975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3755238085701367</v>
+        <v>-0.9836274263379716</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.55902812145496</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.6603993171036</v>
+        <v>-25.35298532078479</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1307948192279355</v>
+        <v>-0.5084815716060491</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3863904199287694</v>
+        <v>-0.7272539520912917</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.34791218803377</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.14655579852542</v>
+        <v>-25.7518816037665</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03387250129063742</v>
+        <v>-0.456819344592598</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6431173863521759</v>
+        <v>-0.5561768308584571</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.11301108424312</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.53225504024266</v>
+        <v>-26.23202871818396</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05594612388178757</v>
+        <v>-0.4864341336205824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.587383453154948</v>
+        <v>-0.4949834073762295</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.87099309641582</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.80520336988697</v>
+        <v>-26.48054681072561</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2447317031812933</v>
+        <v>-0.1688934204973584</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5753647191462434</v>
+        <v>-0.4782776289501871</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.63225965156303</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.80551758515517</v>
+        <v>-26.51292407565319</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2477953020462572</v>
+        <v>-0.2207782166591188</v>
       </c>
       <c r="G26" t="n">
-        <v>0.419959084414955</v>
+        <v>-0.6458067361129138</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.39829096128397</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.7725511665997</v>
+        <v>-26.5536542297938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06075866364935861</v>
+        <v>-0.4073697167593987</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4043137825190923</v>
+        <v>-0.6034924133284552</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.18974973601124</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.87622911280333</v>
+        <v>-26.59249909232521</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1949678600798925</v>
+        <v>-0.1728996651669265</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1051284779799682</v>
+        <v>-0.9242800175564273</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.01159620012281</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.9219343420238</v>
+        <v>-26.70696509607042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1571572894729877</v>
+        <v>-0.2390419791233266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006438699159037146</v>
+        <v>-0.9654814945993393</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.86565109411259</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.70100173156967</v>
+        <v>-26.43168633652028</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0209318784048279</v>
+        <v>-0.3204630104960211</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1840804917937606</v>
+        <v>-1.083783543077176</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.76323821063509</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.24385779324512</v>
+        <v>-26.03313045341246</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02576293815342482</v>
+        <v>-0.3277030539674956</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6677494356756467</v>
+        <v>-1.60665084166719</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.69719719145832</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.296973265874</v>
+        <v>-26.12687134175922</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08666833097313449</v>
+        <v>-0.2259496762816006</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7669236297017217</v>
+        <v>-1.798230509150168</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.66402722030007</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.89822099822355</v>
+        <v>-25.70629420527161</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02104970913040344</v>
+        <v>-0.2716156285935411</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.247974113015263</v>
+        <v>-2.29453352527432</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.66239583939966</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.31207859999948</v>
+        <v>-25.05478193895879</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1182262084998785</v>
+        <v>-0.2932048359795474</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.324315330885367</v>
+        <v>-2.302938783698707</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.67370247421268</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.96962323456845</v>
+        <v>-24.69716568683705</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3159592583184673</v>
+        <v>-0.4935301617607979</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.370858467487704</v>
+        <v>-2.468438583920967</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.69180851118369</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.23670302918578</v>
+        <v>-23.88029763563323</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4289720164482467</v>
+        <v>-0.5800048220303986</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.580243666835428</v>
+        <v>-2.627588617264989</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.70872954140223</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.43580758744887</v>
+        <v>-23.07653497957399</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3662598858363789</v>
+        <v>-0.5365514688987099</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.69562613177956</v>
+        <v>-2.808759903988794</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.70748133179124</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.05603915891893</v>
+        <v>-22.72504592518217</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4329520765121314</v>
+        <v>-0.5815104368571972</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.95518103561678</v>
+        <v>-3.087377200763567</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-12.69160465882318</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.40510295393115</v>
+        <v>-22.05542700403925</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2899186679662741</v>
+        <v>-0.5500496331285294</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.1047605955835</v>
+        <v>-3.277804745596472</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.65998474509031</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.07250609253994</v>
+        <v>-21.66261864187894</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5632990436043561</v>
+        <v>-0.6981890397826599</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.326557298025181</v>
+        <v>-3.456017171878047</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.60806346834329</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.5262559410746</v>
+        <v>-20.99637753486918</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2855589311199794</v>
+        <v>-0.51455640012461</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.175472123231662</v>
+        <v>-3.388513258426108</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.55154816406723</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.97472959156405</v>
+        <v>-20.50722291609661</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.04022226816887456</v>
+        <v>-0.2716418131992245</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.184715289037921</v>
+        <v>-3.521989285897505</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.49613459847987</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.07805086223707</v>
+        <v>-19.58972742525129</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04713500406930592</v>
+        <v>-0.2263686299725358</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.092872784603213</v>
+        <v>-3.522814100976534</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.4480322170225</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.74489103182367</v>
+        <v>-19.2493537359721</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0009060827351711783</v>
+        <v>-0.1804146469980773</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.281650699278061</v>
+        <v>-3.761827181655085</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.42414745627511</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.2196540264193</v>
+        <v>-18.66184973825248</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.02860939554826354</v>
+        <v>-0.2056042376655582</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.3215429460368</v>
+        <v>-3.831504417378751</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-12.42391461921187</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.82015549750687</v>
+        <v>-18.18555176087049</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.002477159076178306</v>
+        <v>-0.1297343426977557</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.244952974412703</v>
+        <v>-3.621975202699767</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-12.45043739497712</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.16492501718701</v>
+        <v>-17.49662169303602</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0141500655328138</v>
+        <v>-0.1884009517315302</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.560896426589236</v>
+        <v>-4.013042288582125</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.51000549940588</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.50373753907416</v>
+        <v>-16.82527458791799</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.005488388729775302</v>
+        <v>-0.1319862187865326</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.48719985389316</v>
+        <v>-3.847660319085441</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.59366842369659</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.95782778748271</v>
+        <v>-16.14772173125298</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1324259294049671</v>
+        <v>-0.05066992583657196</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.690287655574015</v>
+        <v>-4.167191062240607</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.70759506840772</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.26076739958353</v>
+        <v>-15.40221982283941</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2699998476658246</v>
+        <v>-0.007124926584991061</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.634867937644989</v>
+        <v>-4.14202765617881</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.85562794265375</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.46496486365205</v>
+        <v>-14.5868573864624</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2719506007892418</v>
+        <v>0.03463951948011509</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.715437969332971</v>
+        <v>-4.342143505114593</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.02972423561818</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86885922296542</v>
+        <v>-14.00940827732523</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3494832182179436</v>
+        <v>0.08977120674662357</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.720543967441244</v>
+        <v>-4.193179283381434</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.24004517452514</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.23121170536199</v>
+        <v>-13.31406298109832</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4050731360839125</v>
+        <v>0.18008191174885</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.74463380467002</v>
+        <v>-4.263982457149488</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.48543740662323</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.85395699897766</v>
+        <v>-12.91388365243812</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2968128838856796</v>
+        <v>0.009174990452957894</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.866130375041238</v>
+        <v>-4.490950619213652</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.75587998248978</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.37233045433908</v>
+        <v>-12.27310707445552</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0530211126698985</v>
+        <v>-0.1104231960062097</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.34673572005816</v>
+        <v>-4.880525182572052</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.05648003736506</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.94698771961709</v>
+        <v>-11.84695261695733</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1302002379218737</v>
+        <v>-0.1453534599879349</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.424949137234631</v>
+        <v>-5.02181731483996</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.37541528961568</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.18678315511226</v>
+        <v>-11.06485772210115</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07241081317849481</v>
+        <v>-0.1814882158310988</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.788443833332314</v>
+        <v>-5.471812855812927</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.69769333163522</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.888985634674359</v>
+        <v>-10.81033026255515</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1089830426936199</v>
+        <v>-0.3466214315737897</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.816644653653392</v>
+        <v>-5.454138246976597</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-15.01979672499025</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.32753531960978</v>
+        <v>-10.17959548085215</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.03128022532797566</v>
+        <v>-0.2988999877156982</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.099071810555107</v>
+        <v>-5.776706404391043</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-15.32254129897171</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.968897867866376</v>
+        <v>-9.890949480100618</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1573721939966394</v>
+        <v>-0.394355967734723</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.012845904039499</v>
+        <v>-5.636042702659538</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.59534344082534</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.43106606712827</v>
+        <v>-9.309520310899565</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1802444470611348</v>
+        <v>-0.4170056516509091</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.415447308725417</v>
+        <v>-6.005350381218948</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.83503507700338</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.935718789111564</v>
+        <v>-8.831651257176562</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1371576784090144</v>
+        <v>-0.3598315651410913</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.380399214018117</v>
+        <v>-6.044614197441284</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.02544804444346</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.468794900564245</v>
+        <v>-8.387612713996582</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1665368059858477</v>
+        <v>-0.3715360838815944</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.382533259381318</v>
+        <v>-6.024871004755961</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.16676857548934</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.111126279231131</v>
+        <v>-8.034971536954689</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3294181456397617</v>
+        <v>-0.516520245550869</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.604617992485517</v>
+        <v>-6.193683157597177</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-16.25899364805199</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.745196414804887</v>
+        <v>-7.684857174361251</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.271523982473649</v>
+        <v>-0.4314071847768077</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.880224059606693</v>
+        <v>-6.417810289944685</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-16.29081823851944</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.491965093240222</v>
+        <v>-7.425812870334859</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3849556942943637</v>
+        <v>-0.5555091234135292</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.865325018972809</v>
+        <v>-6.344702870876487</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-16.27111253061698</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.331977152514329</v>
+        <v>-7.262564946201377</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.452616715380404</v>
+        <v>-0.6521826875968344</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.969264811233272</v>
+        <v>-6.432002346225117</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-16.20272375012305</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.052875440534413</v>
+        <v>-6.978907112832539</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4125411763818805</v>
+        <v>-0.6191246229214761</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.960519152934999</v>
+        <v>-6.376072028485263</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-16.08096186920482</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.918352028835677</v>
+        <v>-6.882220456346393</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6712058036258625</v>
+        <v>-0.9237956023512834</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.043039937746398</v>
+        <v>-6.39903592766965</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.92016162153267</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.703821554471155</v>
+        <v>-6.698915124259386</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6217692680955048</v>
+        <v>-0.811790951540317</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.895895546108239</v>
+        <v>-6.210532951354478</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.72346025123836</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.583516383658534</v>
+        <v>-6.634461717369568</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7024178536005373</v>
+        <v>-0.8865741853722563</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.861279497394715</v>
+        <v>-6.099667330890743</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.48989867040324</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.573919725675548</v>
+        <v>-6.653995433209424</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8050876924853532</v>
+        <v>-1.023755334547862</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.74397246393285</v>
+        <v>-5.877242197912658</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.23483399291532</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.620646154517669</v>
+        <v>-6.713971272527371</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8456476466890206</v>
+        <v>-1.095658261754622</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.550245658783829</v>
+        <v>-5.726523607598708</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.95935222722993</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.857250251473342</v>
+        <v>-6.932390160835887</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7390108400431618</v>
+        <v>-0.9674584323284399</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.429259688223438</v>
+        <v>-5.564257606178354</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.66829622491987</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.053268209619665</v>
+        <v>-7.098020884086563</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.070913809383759</v>
+        <v>-1.326135160980367</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.26345876503582</v>
+        <v>-5.396545206775843</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.37694307941785</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.563894205052665</v>
+        <v>-7.553096238562119</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.990252131575885</v>
+        <v>-1.262506569169578</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.086607938249784</v>
+        <v>-5.132473458458229</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.08494045735614</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.029338663378868</v>
+        <v>-7.959900272460232</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.048408140798832</v>
+        <v>-1.339751155935762</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.016786687194858</v>
+        <v>-5.089137936052116</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.80239482632967</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.612692401097657</v>
+        <v>-8.554186083051862</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.118818545481635</v>
+        <v>-1.376632173040905</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.629568738347968</v>
+        <v>-4.75072809219918</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.54117102640742</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.030991476890804</v>
+        <v>-8.966069930452564</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.088221833740521</v>
+        <v>-1.417886019295184</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.440725362158911</v>
+        <v>-4.620224017472855</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.29609397557461</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.501005148908771</v>
+        <v>-9.396505570979992</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.284999145451664</v>
+        <v>-1.514454845055755</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.081210726125114</v>
+        <v>-4.271209408318121</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.07813972931624</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.429969497043444</v>
+        <v>-10.27218424654884</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.200933468904941</v>
+        <v>-1.524287164489891</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.070082268709646</v>
+        <v>-4.289761201444847</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.89050040896276</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.23466170660445</v>
+        <v>-10.99546851704</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.293626973024361</v>
+        <v>-1.619402744635031</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.886816213531165</v>
+        <v>-4.073594189225108</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.72486214714343</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.06209524620154</v>
+        <v>-11.76996987624799</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.410161560618565</v>
+        <v>-1.754057079362184</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.520126995540101</v>
+        <v>-3.767902010173646</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.5910906777542</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.26550044650448</v>
+        <v>-12.97184327711844</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.484538933062411</v>
+        <v>-1.829625851364627</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.402885423592444</v>
+        <v>-3.618466465538185</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.48829240445291</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.15406194806958</v>
+        <v>-13.8290748979833</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.574613976613486</v>
+        <v>-1.874872849985632</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.068665116648861</v>
+        <v>-3.283355882001364</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.4107852192632</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32600634464385</v>
+        <v>-14.92258330823278</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.776300901890276</v>
+        <v>-2.060547888886991</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.816860856093944</v>
+        <v>-3.036631434949036</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.37036785653945</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41404217230549</v>
+        <v>-15.97066142762148</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.822935684612505</v>
+        <v>-2.085960048702781</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.401455179228817</v>
+        <v>-2.585863448108408</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.36283663104181</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.81579576066058</v>
+        <v>-17.35347045376459</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.817450009721821</v>
+        <v>-2.002653725720879</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.089112110333758</v>
+        <v>-2.336887124967303</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.38477374862291</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.4870544030126</v>
+        <v>-18.95594213698617</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.051684399863142</v>
+        <v>-2.239284007282235</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8947306900426516</v>
+        <v>-2.155532546003714</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.43857097106679</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.09184342383717</v>
+        <v>-20.51884888102006</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.27079718022227</v>
+        <v>-2.433220289276723</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.6056264586916565</v>
+        <v>-1.891133490115056</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.50896519196146</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.89807061618454</v>
+        <v>-22.15356690614082</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.472588843921794</v>
+        <v>-2.566971255107797</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7529672348724418</v>
+        <v>-2.030252300111237</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.58712763151216</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.60233495400055</v>
+        <v>-23.77333352141633</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.56547873258384</v>
+        <v>-2.685430411219734</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5681039187472696</v>
+        <v>-1.826758637042289</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.66343813885548</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.6886588733438</v>
+        <v>-25.86751282246462</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.729145610408258</v>
+        <v>-2.77080531805063</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.555037800511227</v>
+        <v>-1.804148230034628</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.71401800042744</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.93991962388712</v>
+        <v>-28.05878464138716</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.603538056944738</v>
+        <v>-2.613029976504989</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6902420119577322</v>
+        <v>-1.868981313706855</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.73279930661336</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.22017982522487</v>
+        <v>-30.30313265603005</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.078657727070977</v>
+        <v>-3.043020478735799</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.050175601682465</v>
+        <v>-2.241234760405653</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.71515994795799</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.41234192074064</v>
+        <v>-32.53885284310024</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.144446548850651</v>
+        <v>-3.013772274187382</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.292959265579433</v>
+        <v>-2.506812123550066</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.65106636051362</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.63620048143623</v>
+        <v>-34.7896553630441</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.490109528477902</v>
+        <v>-3.262329643637552</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.508681139502554</v>
+        <v>-2.667729617777721</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.56018281535411</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.14956913487091</v>
+        <v>-37.28430202341512</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.749939370674798</v>
+        <v>-3.507587752771606</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.929690321983939</v>
+        <v>-3.136015105820579</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.44831515624797</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.66854129392185</v>
+        <v>-39.70510809575879</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.664210971667175</v>
+        <v>-3.452154942539738</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.401131055011653</v>
+        <v>-3.621949018094084</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.33758391522904</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.23705472692588</v>
+        <v>-42.27025680693249</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.84332676684483</v>
+        <v>-3.629110507748508</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.745956127257034</v>
+        <v>-3.885326874361087</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.24056105671605</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.51587477495104</v>
+        <v>-44.5670394944565</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.075793696102518</v>
+        <v>-3.819747529426881</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.33823881551388</v>
+        <v>-4.371941586382362</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.20520724806475</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.83703533036633</v>
+        <v>-46.89191826387885</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.222689333986684</v>
+        <v>-3.930259657713891</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.63155876837991</v>
+        <v>-4.679283395591881</v>
       </c>
     </row>
   </sheetData>
